--- a/data/Quemchi.xlsx
+++ b/data/Quemchi.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SALMONES AUCAR LTDA</t>
+          <t>Claudio Sebastián Pérez Golzman</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>3650</v>
+        <v>1500</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
+          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Claudio Sebastián Pérez Golzman</t>
+          <t>SALMONES AUCAR LTDA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1500</v>
+        <v>3650</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
+          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,11 +7111,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>SALMONES ANDES S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>SALMONES ANDES S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2000</v>
+        <v>30</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
+          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">

--- a/data/Quemchi.xlsx
+++ b/data/Quemchi.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
+          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Claudio Sebastián Pérez Golzman</t>
+          <t>SALMONES AUCAR LTDA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1500</v>
+        <v>3650</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SALMONES AUCAR LTDA</t>
+          <t>Claudio Sebastián Pérez Golzman</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>3650</v>
+        <v>1500</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,11 +7111,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>SALMONES ANDES S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1500</v>
+        <v>30</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
+          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SALMONES ANDES S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
+          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">

--- a/data/Quemchi.xlsx
+++ b/data/Quemchi.xlsx
@@ -1015,7 +1015,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>SALMONES MAULLIN LTDA</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F109" t="n">

--- a/data/Quemchi.xlsx
+++ b/data/Quemchi.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SALMONES AUCAR LTDA</t>
+          <t>Claudio Sebastián Pérez Golzman</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>3650</v>
+        <v>1500</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
+          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Claudio Sebastián Pérez Golzman</t>
+          <t>SALMONES AUCAR LTDA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1500</v>
+        <v>3650</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
+          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,11 +7111,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>SALMONES ANDES S.A.</t>
+          <t>Jaime Antonio Varas Vega</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>SALMONES ANDES S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2000</v>
+        <v>30</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
+          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">

--- a/data/Quemchi.xlsx
+++ b/data/Quemchi.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
+          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Claudio Sebastián Pérez Golzman</t>
+          <t>SALMONES AUCAR LTDA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1500</v>
+        <v>3650</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SALMONES AUCAR LTDA</t>
+          <t>Claudio Sebastián Pérez Golzman</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>3650</v>
+        <v>1500</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,11 +7111,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Jaime Antonio Varas Vega</t>
+          <t>SALMONES ANDES S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1500</v>
+        <v>30</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
+          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SALMONES ANDES S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
+          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Jaime Antonio Varas Vega</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">

--- a/data/Quemchi.xlsx
+++ b/data/Quemchi.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SALMONES AUCAR LTDA</t>
+          <t>Claudio Sebastián Pérez Golzman</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>3650</v>
+        <v>1500</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
+          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Claudio Sebastián Pérez Golzman</t>
+          <t>SALMONES AUCAR LTDA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1500</v>
+        <v>3650</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
+          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,11 +7111,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>SALMONES ANDES S.A.</t>
+          <t>Jaime Antonio Varas Vega</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>SALMONES ANDES S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2000</v>
+        <v>30</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
+          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Jaime Antonio Varas Vega</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">

--- a/data/Quemchi.xlsx
+++ b/data/Quemchi.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Quemchi.xlsx
+++ b/data/Quemchi.xlsx
@@ -919,7 +919,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SALMONES AYSÉN S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -967,7 +967,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SALMONES AYSÉN S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SALMONES AYSÉN S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SALMONES AYSÉN S.A.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
+          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Claudio Sebastián Pérez Golzman</t>
+          <t>SALMONES AUCAR LTDA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1500</v>
+        <v>3650</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SALMONES AUCAR LTDA</t>
+          <t>Claudio Sebastián Pérez Golzman</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>3650</v>
+        <v>1500</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,11 +7111,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Jaime Antonio Varas Vega</t>
+          <t>SALMONES ANDES S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1500</v>
+        <v>30</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
+          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SALMONES ANDES S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
+          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Jaime Antonio Varas Vega</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">

--- a/data/Quemchi.xlsx
+++ b/data/Quemchi.xlsx
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>SALMONES AUCAR LTDA</t>
+          <t>MEJILLONES AUCAR LIMITADA</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SALMONES AUCAR LTDA</t>
+          <t>MEJILLONES AUCAR LIMITADA</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>SALMONES AUCAR LTDA</t>
+          <t>MEJILLONES AUCAR LIMITADA</t>
         </is>
       </c>
       <c r="F105" t="n">

--- a/data/Quemchi.xlsx
+++ b/data/Quemchi.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
+          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Claudio Sebastián Pérez Golzman</t>
+          <t>MEJILLONES AUCAR LIMITADA</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1500</v>
+        <v>3650</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MEJILLONES AUCAR LIMITADA</t>
+          <t>Claudio Sebastián Pérez Golzman</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>3650</v>
+        <v>1500</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,11 +7111,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Jaime Antonio Varas Vega</t>
+          <t>SALMONES ANDES S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1500</v>
+        <v>30</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
+          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SALMONES ANDES S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
+          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Jaime Antonio Varas Vega</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">

--- a/data/Quemchi.xlsx
+++ b/data/Quemchi.xlsx
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MEJILLONES AUCAR LIMITADA</t>
+          <t>Claudio Sebastián Pérez Golzman</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>3650</v>
+        <v>1500</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
+          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Claudio Sebastián Pérez Golzman</t>
+          <t>MEJILLONES AUCAR LIMITADA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1500</v>
+        <v>3650</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
+          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,11 +7111,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>SALMONES ANDES S.A.</t>
+          <t>Jaime Antonio Varas Vega</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>SALMONES ANDES S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2000</v>
+        <v>30</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
+          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Jaime Antonio Varas Vega</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">

--- a/data/Quemchi.xlsx
+++ b/data/Quemchi.xlsx
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Mowi Chile S.A</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MEJILLONES AUCAR LIMITADA</t>
+          <t>Claudio Sebastián Pérez Golzman</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>3650</v>
+        <v>1500</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
+          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Claudio Sebastián Pérez Golzman</t>
+          <t>MEJILLONES AUCAR LIMITADA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1500</v>
+        <v>3650</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
+          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,11 +7111,11 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>SALMONES ANDES S.A.</t>
+          <t>Jaime Antonio Varas Vega</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>SALMONES ANDES S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>2000</v>
+        <v>30</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
+          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Jaime Antonio Varas Vega</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">

--- a/data/Quemchi.xlsx
+++ b/data/Quemchi.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J166"/>
+  <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SISTEMA DE ENSILAJE MASIVO PARA MORTALIDAD DE SALMONES, CHILOÉ</t>
+          <t>Declaración de Impacto Ambiental para Solicitud y proyecto técnico de Concesión de Acuicultura N°Pert 212103038 ubicado en Canal Caucahué, al oeste del Islote Caucahué, Comuna de Quemchi, Región de los Lagos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Productos del Mar Ventisqueros S.A.</t>
+          <t>BLUE MAR LIMITADA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>550</v>
+        <v>100</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/06/2021</t>
+          <t>19/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152028980&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159858721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto técnico, centro de cultivo de mitílidos KE5-103571, Canal Caucahue, al Suroeste de Bajo Caucahue, Comuna de Quemchi, Chiloé, N° PERT: 220103032</t>
+          <t>SISTEMA DE ENSILAJE MASIVO PARA MORTALIDAD DE SALMONES, CHILOÉ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Camanchaca Cultivos Sur S.A.</t>
+          <t>Productos del Mar Ventisqueros S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>550</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>14/04/2021</t>
+          <t>18/06/2021</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151428641&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2152028980&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto técnico, centro de cultivo de mitílidos KE2-103520, Canal Caucahue, al Sur de Punta Quechuco, Comuna de Quemchi, Chiloé, N° PERT: 220103031</t>
+          <t>Modificación de Proyecto técnico, centro de cultivo de mitílidos KE5-103571, Canal Caucahue, al Suroeste de Bajo Caucahue, Comuna de Quemchi, Chiloé, N° PERT: 220103032</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -539,7 +539,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151421365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151428641&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto técnico, centro de cultivo de mitílidos KU2-103511, Canal Caucahue, al Norte de Punta Quechuco, Comuna de Quemchi, Chiloé, N° PERT: 220103027</t>
+          <t>Modificación de Proyecto técnico, centro de cultivo de mitílidos KE2-103520, Canal Caucahue, al Sur de Punta Quechuco, Comuna de Quemchi, Chiloé, N° PERT: 220103031</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151413963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151421365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>\"Modificación de Proyecto técnico, centro de cultivo de mitílidos KU2-103511, Canal Caucahue, al Norte de Punta Quechuco, Comuna de Quemchi, Chiloé, N° PERT: 220103027\"</t>
+          <t>Modificación de Proyecto técnico, centro de cultivo de mitílidos KU2-103511, Canal Caucahue, al Norte de Punta Quechuco, Comuna de Quemchi, Chiloé, N° PERT: 220103027</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>29/03/2021</t>
+          <t>14/04/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151220441&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151413963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto técnico, centro de cultivo de mitílidos KU3-103537, Canal Caucahue, al oeste de Estero Punie, Comuna de Quemchi, Chiloé, N° PERT 220103005</t>
+          <t>\"Modificación de Proyecto técnico, centro de cultivo de mitílidos KU2-103511, Canal Caucahue, al Norte de Punta Quechuco, Comuna de Quemchi, Chiloé, N° PERT: 220103027\"</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -683,21 +683,21 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>07/08/2020</t>
+          <t>29/03/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147597509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2151220441&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE ENGORDA DE SALMONES QUICAVÍ, COMUNA DE QUEMCHI, REGIÓN DE LOS LAGOS, N° PERT 216103001"</t>
+          <t>Modificación de Proyecto técnico, centro de cultivo de mitílidos KU3-103537, Canal Caucahue, al oeste de Estero Punie, Comuna de Quemchi, Chiloé, N° PERT 220103005</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Camanchaca Cultivos Sur S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2500</v>
+        <v>350</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>16/09/2016</t>
+          <t>07/08/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131799899&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147597509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Centro de Cultivo de mitílidos Sur Punta Quechuco, Comuna Quemchi, Chiloé, Nº Pert 213103020.</t>
+          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE ENGORDA DE SALMONES QUICAVÍ, COMUNA DE QUEMCHI, REGIÓN DE LOS LAGOS, N° PERT 216103001"</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>134</v>
+        <v>2500</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15/10/2015</t>
+          <t>16/09/2016</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130834205&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2131799899&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO DE SALMÓNIDOS BUTACHAUQUES II, AL NORESTE DE PUNTA TUGNAO, COMUNA DE QUEMCHI, REGIÓN DE LOS LAGOS, CÓDIGO DE CENTRO N° 103333"</t>
+          <t>Modificación de Proyecto Técnico, Centro de Cultivo de mitílidos Sur Punta Quechuco, Comuna Quemchi, Chiloé, Nº Pert 213103020.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,15 +823,15 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1500</v>
+        <v>134</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>24/07/2015</t>
+          <t>15/10/2015</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130643099&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130834205&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto Técnico, Centro de Cultivo Oeste Punta Punie, Comuna Quemchi, Chiloé, Nº Pert 213103023.</t>
+          <t>"AMPLIACIÓN DE BIOMASA EN CENTRO DE CULTIVO DE SALMÓNIDOS BUTACHAUQUES II, AL NORESTE DE PUNTA TUGNAO, COMUNA DE QUEMCHI, REGIÓN DE LOS LAGOS, CÓDIGO DE CENTRO N° 103333"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>40</v>
+        <v>1500</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>09/07/2015</t>
+          <t>24/07/2015</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130595042&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130643099&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN PROYECTO TÉCNICO CENTRO DE ENGORDA DE SALMONES CURBITA, COMUNA DE QUEMCHI, PROVINCIA DE CHILOÉ, DECIMA REGIÓN DE LOS LAGOS, PERT N° 214103031"</t>
+          <t>Modificación de Proyecto Técnico, Centro de Cultivo Oeste Punta Punie, Comuna Quemchi, Chiloé, Nº Pert 213103023.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2500</v>
+        <v>40</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>18/12/2014</t>
+          <t>09/07/2015</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130047837&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130595042&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN PROYECTO TÉCNICO CENTRO DE ENGORDA DE SALMONES ENSENADA PILLIHUE, COMUNA DE QUEMCHI, PROVINCIA DE CHILOÉ, DECIMO REGIÓN DE LOS LAGOS, PERT N° 214103030"</t>
+          <t>"MODIFICACIÓN PROYECTO TÉCNICO CENTRO DE ENGORDA DE SALMONES CURBITA, COMUNA DE QUEMCHI, PROVINCIA DE CHILOÉ, DECIMA REGIÓN DE LOS LAGOS, PERT N° 214103031"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>12/12/2014</t>
+          <t>18/12/2014</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130040384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130047837&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONIDOS CHAUQUES</t>
+          <t>"MODIFICACIÓN PROYECTO TÉCNICO CENTRO DE ENGORDA DE SALMONES ENSENADA PILLIHUE, COMUNA DE QUEMCHI, PROVINCIA DE CHILOÉ, DECIMO REGIÓN DE LOS LAGOS, PERT N° 214103030"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>23/12/2013</t>
+          <t>12/12/2014</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128937180&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130040384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR SUR PUNTA CACHIHUE, ISLA BUTACHAUQUES, X REGIÓN, CÓDIGO DE CENTRO 102505, N° PERT 208103128.</t>
+          <t>MODIFICACION DE PROYECTO TECNICO EN CENTRO DE ENGORDA DE SALMONIDOS CHAUQUES</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,15 +1063,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4500</v>
+        <v>2000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>30/10/2013</t>
+          <t>23/12/2013</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128756028&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128937180&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>"Manejo De Mortalidad Mediante Sistema De Ensilaje En Centro De Cultivo, Noroeste Isla Aulín"</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR SUR PUNTA CACHIHUE, ISLA BUTACHAUQUES, X REGIÓN, CÓDIGO DE CENTRO 102505, N° PERT 208103128.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1115,11 +1115,11 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>90</v>
+        <v>4500</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>30/09/2013</t>
+          <t>30/10/2013</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128621872&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128756028&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>"Manejo De Mortalidad Mediante Sistema De Ensilaje En Centro De Cultivo Punta Lobos, Isla Tac"</t>
+          <t>"Manejo De Mortalidad Mediante Sistema De Ensilaje En Centro De Cultivo, Noroeste Isla Aulín"</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128622384&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128621872&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>"Manejo De Mortalidad Mediante Sistema De Ensilaje En Centro De Cultivo Estero Butatique, Isla Aulín"</t>
+          <t>"Manejo De Mortalidad Mediante Sistema De Ensilaje En Centro De Cultivo Punta Lobos, Isla Tac"</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>28/08/2013</t>
+          <t>30/09/2013</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128512558&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128622384&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MODIFICACION DE PROYECTO TECNICO CENTRO CULTIVO SALMONIDEOS NORESTE PUNTA TUGNAO ISLA BUTACHAUQUES.</t>
+          <t>"Manejo De Mortalidad Mediante Sistema De Ensilaje En Centro De Cultivo Estero Butatique, Isla Aulín"</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1259,11 +1259,11 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1500</v>
+        <v>90</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>27/08/2013</t>
+          <t>28/08/2013</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128506971&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128512558&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>MODIFICACION DE PROYECTO TECNICO CENTRO CULTIVO SALMONIDEOS NORESTE PUNTA TUGNAO ISLA BUTACHAUQUES.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,20 +1298,20 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>27/08/2013</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2128506971&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,25 +1351,25 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1407,17 +1407,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15/04/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUERTO VOIGUE, ISLA CHENIAO, CÓDIGO DE CENTRO 102117, X REGIÓN.</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4500</v>
+        <v>250</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>28/03/2013</t>
+          <t>15/04/2013</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8012592&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8063600&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>MODIFICACIÓN DE PROYECTO TÉCNICO DE ACUICULTURA, CENTRO DE CULTIVOS DE SALMÓNIDOS, SECTOR PUERTO VOIGUE, ISLA CHENIAO, CÓDIGO DE CENTRO 102117, X REGIÓN.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1490,30 +1490,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>250</v>
+        <v>4500</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>19/03/2013</t>
+          <t>28/03/2013</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8012592&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"Modificación De Proyecto Técnico, Centro De Cultivo De Salmones y Algas" Pert Nº 211103083</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4000</v>
+        <v>250</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>31/10/2012</t>
+          <t>19/03/2013</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7490890&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7961483&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>"Modificación de proyecto de acuicultura del centro de cultivo de salmónidos Lleuna Comuna de Quemchi, Décima Región. Nº PERT 211103048".</t>
+          <t>"Modificación De Proyecto Técnico, Centro De Cultivo De Salmones y Algas" Pert Nº 211103083</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>03/08/2012</t>
+          <t>31/10/2012</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7192211&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7490890&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMONES TUBILDAD, COMUNA DE QUEMCHI, DECIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 212103057"</t>
+          <t>"Modificación de proyecto de acuicultura del centro de cultivo de salmónidos Lleuna Comuna de Quemchi, Décima Región. Nº PERT 211103048".</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>18/07/2012</t>
+          <t>03/08/2012</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7135157&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7192211&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMONES CHILLIDQUE, COMUNA DE QUEMCHI, DECIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 211103109"</t>
+          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMONES TUBILDAD, COMUNA DE QUEMCHI, DECIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 212103057"</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7136519&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7135157&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>"Modificación de proyecto de acuicultura del centro de cultivo de salmónidos Lamahue Comuna de Quemchi, Décima Región. Nº PERT 211103052".</t>
+          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMONES CHILLIDQUE, COMUNA DE QUEMCHI, DECIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 211103109"</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,15 +1735,15 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>22/06/2012</t>
+          <t>18/07/2012</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7039959&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7136519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DECLARACIÓN DE IMPACTO AMBIENTAL AMPLIACIÓN DE BIOMASA DE SALMÓNIDOS, CONCESIÓN PUNTA COÑUE, ISLA LINLIN, COMUNA DE QUINCHAO, Nº SOLICITUD: 211103046.</t>
+          <t>"Modificación de proyecto de acuicultura del centro de cultivo de salmónidos Lamahue Comuna de Quemchi, Décima Región. Nº PERT 211103052".</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1787,11 +1787,11 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>04/06/2012</t>
+          <t>22/06/2012</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6926757&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7039959&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos Interregional</t>
+          <t>DECLARACIÓN DE IMPACTO AMBIENTAL AMPLIACIÓN DE BIOMASA DE SALMÓNIDOS, CONCESIÓN PUNTA COÑUE, ISLA LINLIN, COMUNA DE QUINCHAO, Nº SOLICITUD: 211103046.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1826,30 +1826,30 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Jorge Andrés Torres Hidalgo</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>23/04/2012</t>
+          <t>04/06/2012</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6926757&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Modificación Proyecto Técnico C.E.S. Isla Tac, Sector Punta Pichi Nichi, X Región, PERT 211103073 Modif. Proy. Técnico C.E.S. Isla Tac,Pichi Nichi</t>
+          <t>Transporte de Residuos Peligrosos Interregional</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Cultivos Yadran S.A.</t>
+          <t>Jorge Andrés Torres Hidalgo</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>17/04/2012</t>
+          <t>23/04/2012</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6812346&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6852559&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto de acuicultura del Centro de cultivo de salmonidos Tubildad. Comuna de Quemchi, Decima Región. N° Pert 211103028 Modif.Proyecto C.C.S. Tubildad Pert 211103028</t>
+          <t>Modificación Proyecto Técnico C.E.S. Isla Tac, Sector Punta Pichi Nichi, X Región, PERT 211103073 Modif. Proy. Técnico C.E.S. Isla Tac,Pichi Nichi</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Cultivos Yadran S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>13/04/2012</t>
+          <t>17/04/2012</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750545&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6812346&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>Modificación de Proyecto de acuicultura del Centro de cultivo de salmonidos Tubildad. Comuna de Quemchi, Decima Región. N° Pert 211103028 Modif.Proyecto C.C.S. Tubildad Pert 211103028</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>13/04/2012</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6750545&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PRODUCCIÓN CONCESIÓN DE ACUICULTURA PERT 208103087</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,20 +2018,20 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Carlos Hernán Ponce Valdivia</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>24/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6224482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>MODIFICACIÓN DE PRODUCCIÓN CONCESIÓN DE ACUICULTURA PERT 208103087</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,20 +2066,20 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Carlos Hernán Ponce Valdivia</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>24/01/2012</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6224482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMONES CHOEN, SECTOR CHOEN, CANAL CAUCAHUÉ, COMUNA DE QUEMCHI, DECIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 210103223"</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,16 +2114,16 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Salmones Aysén S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>3000</v>
+        <v>100</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2132,12 +2132,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6481003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas Quemchi</t>
+          <t>"AMPLIACIÓN DE BIOMASA CENTRO DE CULTIVO DE SALMONES CHOEN, SECTOR CHOEN, CANAL CAUCAHUÉ, COMUNA DE QUEMCHI, DECIMA REGIÓN DE LOS LAGOS, Nº DE SOLICITUD 210103223"</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2167,15 +2167,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Quemchi</t>
+          <t>Salmones Aysén S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>3493</v>
+        <v>3000</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>30/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6441401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6481003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>"DIA Modificación del Proyecto Técnico, Centro de Cultivo de Salmones, Canal Quicavi, al Sur de Punta Huechuque, Pert Nº 211103089"</t>
+          <t>Red de Alcantarillado y Planta de Tratamiento de Aguas Servidas Quemchi</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2215,15 +2215,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Ilustre Municipalidad de Quemchi</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2000</v>
+        <v>3493</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>30/11/2011</t>
+          <t>30/12/2011</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6307193&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6441401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AMPLIACIÓN DE BIOMASA CENTRO PISCICOLA, SURESTE DE PUNTA PIRQUEN, QUEMCHI Xª REGION; Nº PERT: 211103029</t>
+          <t>"DIA Modificación del Proyecto Técnico, Centro de Cultivo de Salmones, Canal Quicavi, al Sur de Punta Huechuque, Pert Nº 211103089"</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,15 +2263,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>23/11/2011</t>
+          <t>30/11/2011</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6302234&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6307193&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Pirquén - Trusal S.A.</t>
+          <t>AMPLIACIÓN DE BIOMASA CENTRO PISCICOLA, SURESTE DE PUNTA PIRQUEN, QUEMCHI Xª REGION; Nº PERT: 211103029</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2315,11 +2315,11 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>12/09/2011</t>
+          <t>23/11/2011</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6022082&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6302234&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Modificaciones en planta de proceso de recursos hidrobiologicos Prosal, Quemchi, X Región.</t>
+          <t>Modificación del Manejo de Mortalidad a través de un Sistema de Ensilaje en Centro de Cultivo de Salmones Pirquén - Trusal S.A.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>267</v>
+        <v>100</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>12/08/2011</t>
+          <t>12/09/2011</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5916159&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6022082&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Centro Butachauques I, Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
+          <t>Modificaciones en planta de proceso de recursos hidrobiologicos Prosal, Quemchi, X Región.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Invermar S.A.</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>28/07/2011</t>
+          <t>12/08/2011</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862285&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5916159&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Centro Noroeste Punta Tugnao, Isla Butachauques I, Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
+          <t>Centro Butachauques I, Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,7 +2455,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Invertec Pesquera Mar de Chiloé</t>
+          <t>Invermar S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2463,17 +2463,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10/06/2011</t>
+          <t>28/07/2011</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5710583&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5862285&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Mechuque, código 100.982"</t>
+          <t>Centro Noroeste Punta Tugnao, Isla Butachauques I, Modificación al Manejo de Mortalidad Implementando Sistema de Ensilaje</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Invertec Pesquera Mar de Chiloé</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>21/04/2011</t>
+          <t>10/06/2011</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5710583&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Punta Conev, código 101.279"</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Mechuque, código 100.982"</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551927&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de mortalidad Centro Cultivo Butachauques</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Punta Conev, código 101.279"</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>29/04/2010</t>
+          <t>21/04/2011</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5551927&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de mortalidad Centro de Cultivo Salmones Sur Isla Taucolón 204103057</t>
+          <t>Sistema de tratamiento de mortalidad Centro Cultivo Butachauques</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2665,7 +2665,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4545903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos en Oeste de Bajo Caucahué, Nº 206103203 (e-seia)</t>
+          <t>Sistema de tratamiento de mortalidad Centro de Cultivo Salmones Sur Isla Taucolón 204103057</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2695,15 +2695,15 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>432</v>
+        <v>120</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>10/12/2009</t>
+          <t>29/04/2010</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2713,7 +2713,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4219318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4547330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Centro de Cultivo Caucahue: Modificación al Manejo de Residuos de Mortalidad usando el sistema de Ensilaje (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos en Oeste de Bajo Caucahué, Nº 206103203 (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2743,15 +2743,15 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>38</v>
+        <v>432</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>14/10/2009</t>
+          <t>10/12/2009</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4098290&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4219318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA COLU, COMUNA DE QUEMCHI, X REGIÓN (SOL Nº 203103179)" (e-seia)</t>
+          <t>Centro de Cultivo Caucahue: Modificación al Manejo de Residuos de Mortalidad usando el sistema de Ensilaje (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2791,15 +2791,15 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Andres Luis Lopez Prenzel</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>664</v>
+        <v>38</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>13/10/2009</t>
+          <t>14/10/2009</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2809,7 +2809,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4107186&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4098290&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Modificación Sistema Tratamiento RILES de Proyecto Ampliación de Planta Recursos Hidrobiológicos y Centro de Cosecha en Quemchi (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR ESTE PUNTA COLU, COMUNA DE QUEMCHI, X REGIÓN (SOL Nº 203103179)" (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Andres Luis Lopez Prenzel</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>110</v>
+        <v>664</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>30/09/2009</t>
+          <t>13/10/2009</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4092136&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4107186&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MODIFICACIÓN DE PRODUCCIÓN CONCESIÓN DE ACUICULTURA Nº PERT 207103124, ESTERO TUBILDAD, COMUNA DE QUEMCHI, PROVINCIA DE CHILOÉ (e-seia)</t>
+          <t>Modificación Sistema Tratamiento RILES de Proyecto Ampliación de Planta Recursos Hidrobiológicos y Centro de Cosecha en Quemchi (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Carlos Victor Sandoval Dunkler</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>11/08/2009</t>
+          <t>30/09/2009</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3919842&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4092136&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN QUICAVI SECTOR DOS, COMUNA DE QUEMCHI, X REGIÓN (SOL Nº 207103158)" (e-seia)</t>
+          <t>MODIFICACIÓN DE PRODUCCIÓN CONCESIÓN DE ACUICULTURA Nº PERT 207103124, ESTERO TUBILDAD, COMUNA DE QUEMCHI, PROVINCIA DE CHILOÉ (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
+          <t>Carlos Victor Sandoval Dunkler</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>676</v>
+        <v>78</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>03/08/2009</t>
+          <t>11/08/2009</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3943852&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3919842&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN EL SECTOR RADA QUICAVI, COMUNA DE QUEMCHI, X REGIÓN (SOL Nº 207103159)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN QUICAVI SECTOR DOS, COMUNA DE QUEMCHI, X REGIÓN (SOL Nº 207103158)" (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3944089&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3943852&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN EL SECTOR RADA QUICAVI, COMUNA DE QUEMCHI, X REGIÓN (SOL Nº 207103159)" (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>COMERCIAL CULTIVOS MARINOS DOÑA ANA LIMITADA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>22</v>
+        <v>676</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>03/08/2009</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3944089&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CULTIVO DE MITILIDOS EN SECTOR CANAL CAUCAHUE, AL SUR DE PUNTA TELIUPTA, ISLA CAUCAHUE, COMUNA DE QUEMCHI, X REGIÓN (SOL Nº 205103192) (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>sonia catepillan guinao</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>629</v>
+        <v>22</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>30/04/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3753251&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Cultivo Mitilidos Sureste Río Metrenquen (e-seia)</t>
+          <t>CULTIVO DE MITILIDOS EN SECTOR CANAL CAUCAHUE, AL SUR DE PUNTA TELIUPTA, ISLA CAUCAHUE, COMUNA DE QUEMCHI, X REGIÓN (SOL Nº 205103192) (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Karen Gisela Rybertt Vogel</t>
+          <t>sonia catepillan guinao</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>288</v>
+        <v>629</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>24/04/2009</t>
+          <t>30/04/2009</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3509801&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3753251&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS NORTE PUNTA QUECHUCO, CANAL CAUCAHUE, Nº PERT 205103207, QUEMCHI, DECIMA REGIÓN. (e-seia)</t>
+          <t>Cultivo Mitilidos Sureste Río Metrenquen (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Karen Gisela Rybertt Vogel</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>400</v>
+        <v>288</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>23/03/2009</t>
+          <t>24/04/2009</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3644958&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3509801&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Plan de Cierre y Sellado Vertedero Municipal Comuna de Quemchi (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS NORTE PUNTA QUECHUCO, CANAL CAUCAHUE, Nº PERT 205103207, QUEMCHI, DECIMA REGIÓN. (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,15 +3223,15 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Quemchi</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>236</v>
+        <v>400</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10/03/2009</t>
+          <t>23/03/2009</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3612066&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3644958&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS EN SURESTE PUNTA QUECHUCO CANAL CAUCAHUÉ, N° 206103202 (e-seia)</t>
+          <t>Plan de Cierre y Sellado Vertedero Municipal Comuna de Quemchi (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,15 +3271,15 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Ilustre Municipalidad de Quemchi</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>400</v>
+        <v>236</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>20/02/2009</t>
+          <t>10/03/2009</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3546235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3612066&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS EN CANAL CAUCAHUÉ, N° 203103128 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS EN SURESTE PUNTA QUECHUCO CANAL CAUCAHUÉ, N° 206103202 (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,15 +3319,15 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Cultivos Marinos del Sur S.A.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1350</v>
+        <v>400</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10/02/2009</t>
+          <t>20/02/2009</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -3337,7 +3337,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3534209&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3546235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL CAUCAHE, ENTRE PTA. TUBILDAD Y PTA. YAUVILO, COMUNA DE QUEMCHI, X REGIÓN (SOL Nº 208103156)" (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS EN CANAL CAUCAHUÉ, N° 203103128 (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,15 +3367,15 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SALMONES ANDES S.A.</t>
+          <t>Cultivos Marinos del Sur S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>579</v>
+        <v>1350</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>03/02/2009</t>
+          <t>10/02/2009</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3538444&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3534209&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL CAUCAHUE, ENSENADA PILLIHUE, ISLA CAUCAHUE QUEMCHI. (SOL Nº 208103155)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL CAUCAHE, ENTRE PTA. TUBILDAD Y PTA. YAUVILO, COMUNA DE QUEMCHI, X REGIÓN (SOL Nº 208103156)" (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3538741&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3538444&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL CAUCAHUE, ISLA AUCAR, COMUNA DE QUEMCHI, X REGIÓN (SOL Nº 209103012)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL CAUCAHUE, ENSENADA PILLIHUE, ISLA CAUCAHUE QUEMCHI. (SOL Nº 208103155)" (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,15 +3463,15 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>JOSE GUMERCINDO NAHUELHUEN MALDONADO</t>
+          <t>SALMONES ANDES S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>290</v>
+        <v>579</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>29/01/2009</t>
+          <t>03/02/2009</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3524941&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3538741&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR NORTE PUNTA QUELER, CANAL CAUCHAUE, ISLA CAUCAHUE, COMUNA DE QUEMCHI, X REGIÓN (SOL Nº 208103203)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR CANAL CAUCAHUE, ISLA AUCAR, COMUNA DE QUEMCHI, X REGIÓN (SOL Nº 209103012)" (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,11 +3511,11 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Ramon Urbizu De Cabo</t>
+          <t>JOSE GUMERCINDO NAHUELHUEN MALDONADO</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>579</v>
+        <v>290</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3525454&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3524941&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR AUCAR, CANAL CAUCAHUE COMUNA DE QUEMCHI, X REGIÓN (SOL Nº 208103120)" (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR NORTE PUNTA QUELER, CANAL CAUCHAUE, ISLA CAUCAHUE, COMUNA DE QUEMCHI, X REGIÓN (SOL Nº 208103203)" (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,11 +3559,11 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Vilma del Carmen Cárdenas Miranda</t>
+          <t>Ramon Urbizu De Cabo</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>290</v>
+        <v>579</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3525534&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3525454&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Isla Caucahue pert. 205103242 (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR AUCAR, CANAL CAUCAHUE COMUNA DE QUEMCHI, X REGIÓN (SOL Nº 208103120)" (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,15 +3607,15 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Vilma del Carmen Cárdenas Miranda</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>50</v>
+        <v>290</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>20/01/2009</t>
+          <t>29/01/2009</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3625,7 +3625,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3496262&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3525534&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>"CULTIVO DE MITILIDOS EN SECTOR NOROESTE PUNTA COLU, COMUNA DE QUEMCHI, X REGIÓN (SOL Nº 203103173)" (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Isla Caucahue pert. 205103242 (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,15 +3655,15 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Andres Luis Lopez Prenzel</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>688</v>
+        <v>50</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>03/10/2008</t>
+          <t>20/01/2009</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3240964&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3496262&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CULTIVO DE MOLUSCOS EN ESTERO TUBILDAD (e-seia)</t>
+          <t>"CULTIVO DE MITILIDOS EN SECTOR NOROESTE PUNTA COLU, COMUNA DE QUEMCHI, X REGIÓN (SOL Nº 203103173)" (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,15 +3703,15 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>POLINIA DE LOURDES MANSILLA NAVARRO</t>
+          <t>Andres Luis Lopez Prenzel</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>100</v>
+        <v>688</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>16/09/2008</t>
+          <t>03/10/2008</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3721,7 +3721,7 @@
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3191949&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3240964&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>PROYECTO: CENTRO DE CULTIVO DE MITÍLIDOS PUNTA QUECHUCO, COMUNA DE QUEMCHI, PROVINCIA DE CHILOÉ N° PERT: 205103020 (e-seia)</t>
+          <t>CULTIVO DE MOLUSCOS EN ESTERO TUBILDAD (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,15 +3751,15 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Jorge Antonio Barría Véliz</t>
+          <t>POLINIA DE LOURDES MANSILLA NAVARRO</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>342</v>
+        <v>100</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>10/09/2008</t>
+          <t>16/09/2008</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3185103&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3191949&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Cultivo de Salmones Butachauques (e-seia)</t>
+          <t>PROYECTO: CENTRO DE CULTIVO DE MITÍLIDOS PUNTA QUECHUCO, COMUNA DE QUEMCHI, PROVINCIA DE CHILOÉ N° PERT: 205103020 (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,15 +3799,15 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Jorge Antonio Barría Véliz</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>1200</v>
+        <v>342</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08/09/2008</t>
+          <t>10/09/2008</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3156869&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3185103&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Cultivo de Salmones Conev, Isla Butachauques (e-seia)</t>
+          <t>Ampliación Centro de Cultivo de Salmones Butachauques (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>27/08/2008</t>
+          <t>08/09/2008</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140889&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3156869&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Ampliación Centro de Cultivo de Salmones Conev, Isla Butachauques (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,12 +3890,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F74" t="n">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>27/08/2008</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3140889&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Ampliación Producción Butachauques (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,12 +3938,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F75" t="n">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>02/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ampliación Producción Taucolón (e-seia)</t>
+          <t>Ampliación Producción Butachauques (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3018213&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3017917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>IMPLEMENTACIÓN DE UN EMISARIO SUBMARINO PARA LA DESCARGA DE RILES FUERA DE LA ZONA DE PROTECCIÓN DEL LITORAL, PARA LA PLANTA DE PROCESO DE MITÍLIDOS Y SALMÓN AHUMADO, SALMONES AUCAR LTDA., QUEMCHI, CHILOÉ, X REGIÓN (e-seia)</t>
+          <t>Ampliación Producción Taucolón (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>MEJILLONES AUCAR LIMITADA</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>24/06/2008</t>
+          <t>02/07/2008</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2992599&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3018213&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Centro de engorda de salmones norte isla Alao - Pert N°207103146 (e-seia)</t>
+          <t>IMPLEMENTACIÓN DE UN EMISARIO SUBMARINO PARA LA DESCARGA DE RILES FUERA DE LA ZONA DE PROTECCIÓN DEL LITORAL, PARA LA PLANTA DE PROCESO DE MITÍLIDOS Y SALMÓN AHUMADO, SALMONES AUCAR LTDA., QUEMCHI, CHILOÉ, X REGIÓN (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>LORENA DEL CARMEN VERGARA DIAZ</t>
+          <t>MEJILLONES AUCAR LIMITADA</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>11/02/2008</t>
+          <t>24/06/2008</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2723429&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2992599&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>Centro de engorda de salmones norte isla Alao - Pert N°207103146 (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,20 +4130,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>LORENA DEL CARMEN VERGARA DIAZ</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>234</v>
+        <v>1000</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>11/02/2008</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2723429&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>AMPLIACION SUPERFICIE Y PRODUCION CENTRO DE ENGORDA DE SALMONES TAC SURESTE 203103063 (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Salmones Antártica S.A</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>800</v>
+        <v>10</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>11/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2248040&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>AMPLIACION SUPERFICIE Y PRODUCION CENTRO DE ENGORDA DE SALMONES TAC SURESTE 203103063 (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Salmones Antártica S.A</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>11/07/2007</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2248040&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Modificación de Área y Proyecto en Centro de Cultivo de Salmonidos Cheñique, X Región 0 (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Salmones Mainstream S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>18/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2206330&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Modificación de Biomasa en Centro de Cultivo de Salmónidos Caucahue, X Región. (e-seia)</t>
+          <t>Modificación de Área y Proyecto en Centro de Cultivo de Salmonidos Cheñique, X Región 0 (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4375,25 +4375,25 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>04/04/2007</t>
+          <t>18/06/2007</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2085639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2206330&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Caucahué 1, Canal Caucahué, Comuna de Quemchi (e-seia)</t>
+          <t>Modificación de Biomasa en Centro de Cultivo de Salmónidos Caucahue, X Región. (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4423,15 +4423,15 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Renato Oliverio Yáñez Norambuena</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>324</v>
+        <v>500</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>08/03/2007</t>
+          <t>04/04/2007</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2037424&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2085639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Caucahué 2, Canal Caucahué, Comuna de Quemchi (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Caucahué 1, Canal Caucahué, Comuna de Quemchi (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,11 +4471,11 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>René Alfonso Díaz Miranda</t>
+          <t>Renato Oliverio Yáñez Norambuena</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2037767&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2037424&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CAUCAHUE Nº SOLICITUD 203103146 (e-seia)</t>
+          <t>Centro de Cultivo de Mitílidos Caucahué 2, Canal Caucahué, Comuna de Quemchi (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>René Alfonso Díaz Miranda</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>151</v>
+        <v>290</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>22/01/2007</t>
+          <t>08/03/2007</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1945603&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2037767&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>CULTIVOS MARINOS CAUCAHUE Nº SOLICITUD 203103146 (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,30 +4562,30 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>22/01/2007</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1945603&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4623,17 +4623,17 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA PÁJAROS Nº SOLICITUD 203103153 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4658,30 +4658,30 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>14/12/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1870076&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DIA Isla Aulin Sector Oeste N° Solicitud 203103119 (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA PÁJAROS Nº SOLICITUD 203103153 (e-seia)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Salmones Humboldt Spa.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1200</v>
+        <v>148</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>12/12/2006</t>
+          <t>14/12/2006</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861207&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1870076&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITÍLIDOS PUNTA CHOHÉN (e-seia)</t>
+          <t>DIA Isla Aulin Sector Oeste N° Solicitud 203103119 (e-seia)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Salmones Humboldt Spa.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>950</v>
+        <v>1200</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>02/11/2006</t>
+          <t>12/12/2006</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1768308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1861207&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS AUCAR Nº SOLICITUD 201103152 (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITÍLIDOS PUNTA CHOHÉN (e-seia)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>MARIANA ISABEL PAVEZ POSECK</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>47</v>
+        <v>950</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>11/09/2006</t>
+          <t>02/11/2006</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1677482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1768308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Centro de cultivo de salmones Canal Chauques (Pert. N° 206103123) (e-seia)</t>
+          <t>CULTIVOS MARINOS AUCAR Nº SOLICITUD 201103152 (e-seia)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>MARIANA ISABEL PAVEZ POSECK</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>2000</v>
+        <v>47</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>29/06/2006</t>
+          <t>11/09/2006</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522524&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1677482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>AMPLIACION CENTRO DE CULTIVO DE CHORITO EN PUERTO HUITE, AL OESTE DE PUNTA ARENAS, COMUNA DE QUEMCHI (e-seia)</t>
+          <t>Centro de cultivo de salmones Canal Chauques (Pert. N° 206103123) (e-seia)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>SALMONES ANDES SALMONES ANDES</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>236</v>
+        <v>2000</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>19/05/2006</t>
+          <t>29/06/2006</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1444961&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1522524&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>AMPLIACION CENTRO DE CULTIVO DE CHORITO EN PUERTO HUITE, AL OESTE DE PUNTA ARENAS, COMUNA DE QUEMCHI (e-seia)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4946,30 +4946,30 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>SALMONES ANDES SALMONES ANDES</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>4000</v>
+        <v>236</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>19/05/2006</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1444961&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -5007,17 +5007,17 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Cheñique, X Región (Código Centro 102850) (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Salmones Mainstream S.A.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>07/02/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1280420&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones , Isla Caucahué-Sector Morrolobos (e-seia)</t>
+          <t>Centro de Cultivo de Salmónidos Cheñique, X Región (Código Centro 102850) (e-seia)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,25 +5095,25 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
+          <t>Salmones Mainstream S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>02/02/2006</t>
+          <t>07/02/2006</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263766&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1280420&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
+          <t>Centro de Engorda de Salmones , Isla Caucahué-Sector Morrolobos (e-seia)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,25 +5143,25 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Claudio Sebastián Pérez Golzman</t>
+          <t>PRODUCTOS DEL MAR VENTISQUEROS S.A</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>31/01/2006</t>
+          <t>02/02/2006</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1263766&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MEJILLONES AUCAR LIMITADA</t>
+          <t>Claudio Sebastián Pérez Golzman</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>3650</v>
+        <v>1500</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmones Canal Chauques-Punta Mitahue-Punta Mitahue Pert 201103168 (e-seia)</t>
+          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,25 +5239,25 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Aguas Claras S.A.</t>
+          <t>MEJILLONES AUCAR LIMITADA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1800</v>
+        <v>3650</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>27/01/2006</t>
+          <t>31/01/2006</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252578&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA VOIGUE Nº PERT. 203103175 (e-seia)</t>
+          <t>Centro de Cultivo de Salmones Canal Chauques-Punta Mitahue-Punta Mitahue Pert 201103168 (e-seia)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,25 +5287,25 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Aguas Claras S.A.</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>180</v>
+        <v>1800</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>16/12/2005</t>
+          <t>27/01/2006</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1167279&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252578&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA CHOHEN Nº PERT. 203103118 (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA VOIGUE Nº PERT. 203103175 (e-seia)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5335,11 +5335,11 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1170148&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1167279&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>"SISTEMA DE TRATAMIENTO DE RILES, PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS, COMUNA DE QUEMCHI, DECIMA REGION" (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA CHOHEN Nº PERT. 203103118 (e-seia)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,15 +5383,15 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>MEJILLONES AUCAR LIMITADA</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>19/07/2005</t>
+          <t>16/12/2005</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=925003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1170148&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS ALGEMARIN- Nº PERT:202103016 (e-seia)</t>
+          <t>"SISTEMA DE TRATAMIENTO DE RILES, PLANTA DE PROCESO DE RECURSOS HIDROBIOLOGICOS, COMUNA DE QUEMCHI, DECIMA REGION" (e-seia)</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,15 +5431,15 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Hector Eduardo Lazzerini Jara</t>
+          <t>MEJILLONES AUCAR LIMITADA</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>241</v>
+        <v>96</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>06/04/2005</t>
+          <t>19/07/2005</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=646689&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=925003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AMPLIACION DE PLANTA RECURSOS HIDROBIOLOGICOS Y CENTRO DE COSECHA EN QUEMCHI (e-seia)</t>
+          <t>CULTIVOS MARINOS ALGEMARIN- Nº PERT:202103016 (e-seia)</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Mainstream Chile S.A.</t>
+          <t>Hector Eduardo Lazzerini Jara</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>4500</v>
+        <v>241</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>08/03/2005</t>
+          <t>06/04/2005</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=621708&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=646689&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos: Mitílidos, Ostréidos y Pectínidos en Aucar, Canal Caucahue, (Nº de Sol. 201103151) (e-seia)</t>
+          <t>AMPLIACION DE PLANTA RECURSOS HIDROBIOLOGICOS Y CENTRO DE COSECHA EN QUEMCHI (e-seia)</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,15 +5527,15 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Vilma del Carmen Cárdenas Miranda</t>
+          <t>Mainstream Chile S.A.</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>34</v>
+        <v>4500</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>13/12/2004</t>
+          <t>08/03/2005</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=538919&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=621708&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Caleta Juan Pedro Canal Chauques, Pert Nº 201103168 (e-seia)</t>
+          <t>Cultivo de Moluscos: Mitílidos, Ostréidos y Pectínidos en Aucar, Canal Caucahue, (Nº de Sol. 201103151) (e-seia)</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,15 +5575,15 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>AQUACHILE MAULLÍN LTDA.</t>
+          <t>Vilma del Carmen Cárdenas Miranda</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1800</v>
+        <v>34</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>25/11/2004</t>
+          <t>13/12/2004</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=518847&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=538919&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS TELIUPTA OESTE, PERT N° 203103074 (e-seia)</t>
+          <t>Caleta Juan Pedro Canal Chauques, Pert Nº 201103168 (e-seia)</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,15 +5623,15 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>AQUACHILE MAULLÍN LTDA.</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>25/10/2004</t>
+          <t>25/11/2004</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=488685&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=518847&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>CENTRO DE MITILIDOS QUEUDE NUMERO SOLICITUD 203103020 (e-seia)</t>
+          <t>CENTRO DE CULTIVOS TELIUPTA OESTE, PERT N° 203103074 (e-seia)</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>14/10/2004</t>
+          <t>25/10/2004</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=479519&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=488685&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CENTRO DE MITILIDOS PUNTA QUECHUCO NUMERO SOLICITUD 203103021 (e-seia)</t>
+          <t>CENTRO DE MITILIDOS QUEUDE NUMERO SOLICITUD 203103020 (e-seia)</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5727,7 +5727,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>13/09/2004</t>
+          <t>14/10/2004</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=449573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=479519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CENTRO DE ENGORDA DE SALMONÍDOS NORTE ISLA TAC, (e-seia)</t>
+          <t>CENTRO DE MITILIDOS PUNTA QUECHUCO NUMERO SOLICITUD 203103021 (e-seia)</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SALMONES MULTIEXPORT S.A.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>13/07/2004</t>
+          <t>13/09/2004</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=391308&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=449573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS HUECHUQUE Nº202103019 (e-seia)</t>
+          <t>CENTRO DE ENGORDA DE SALMONÍDOS NORTE ISLA TAC, (e-seia)</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Cecilia del Rosario Peña Sanhueza</t>
+          <t>SALMONES MULTIEXPORT S.A.</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>54</v>
+        <v>450</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>13/07/2004</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393850&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=391308&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>CULTIVOS MARINOS HUECHUQUE Nº202103019 (e-seia)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5858,16 +5858,16 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Cecilia del Rosario Peña Sanhueza</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=393850&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -5896,7 +5896,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DIA Mitilidos Voigue 1 (no. pert 202103030) (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5906,20 +5906,20 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Francisco José López Herrera</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>14/06/2004</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=373388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -5944,7 +5944,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>DIA Mitilidos Voigue 2 (no. pert 202103031) (e-seia)</t>
+          <t>DIA Mitilidos Voigue 1 (no. pert 202103030) (e-seia)</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=373942&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=373388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -5992,7 +5992,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DIA Salmones Butachauques (no. pert 201103016) (e-seia)</t>
+          <t>DIA Mitilidos Voigue 2 (no. pert 202103031) (e-seia)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -6007,15 +6007,15 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Francisco José López Herrera</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>800</v>
+        <v>50</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>25/05/2004</t>
+          <t>14/06/2004</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=360774&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=373942&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS QUECHUCO Pert Nº 202103029 (e-seia)</t>
+          <t>DIA Salmones Butachauques (no. pert 201103016) (e-seia)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -6055,15 +6055,15 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>PEDRO ALMONACID BARRIENTOS</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>19</v>
+        <v>800</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>14/05/2004</t>
+          <t>25/05/2004</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=352382&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=360774&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -6088,7 +6088,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA GUARDIANO Nº 202103028 (e-seia)</t>
+          <t>CULTIVOS MARINOS QUECHUCO Pert Nº 202103029 (e-seia)</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -6107,11 +6107,11 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>12/05/2004</t>
+          <t>14/05/2004</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=352458&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=352382&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -6136,7 +6136,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVOS DE MOLUSCOS SECTOR METAHUE, COMUNA DE QUEMCHI, PROVINCIA DE CHILOÉ, X REGIÓN (Pert. N° 202103003) (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA GUARDIANO Nº 202103028 (e-seia)</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -6151,15 +6151,15 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Luis Bascur Barrera</t>
+          <t>PEDRO ALMONACID BARRIENTOS</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>26/04/2004</t>
+          <t>12/05/2004</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -6169,7 +6169,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=303797&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=352458&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -6184,7 +6184,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNIE , Nº 202103046 (e-seia)</t>
+          <t>CENTRO DE CULTIVOS DE MOLUSCOS SECTOR METAHUE, COMUNA DE QUEMCHI, PROVINCIA DE CHILOÉ, X REGIÓN (Pert. N° 202103003) (e-seia)</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -6199,15 +6199,15 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>CAMANCHACA CULTIVOS SUR S.A</t>
+          <t>Luis Bascur Barrera</t>
         </is>
       </c>
       <c r="F122" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>12/04/2004</t>
+          <t>26/04/2004</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=317181&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=303797&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS PUNTA QUECHUCO Nº 202103045 (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNIE , Nº 202103046 (e-seia)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=318305&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=317181&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>PROYECTO BACALAO (PERT Nº 201103257) (e-seia)</t>
+          <t>CULTIVOS MARINOS PUNTA QUECHUCO Nº 202103045 (e-seia)</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6295,15 +6295,15 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>INDUSTRIA MAR DE CHILOE LTDA.</t>
+          <t>CAMANCHACA CULTIVOS SUR S.A</t>
         </is>
       </c>
       <c r="F124" t="n">
-        <v>135</v>
+        <v>56</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>17/03/2004</t>
+          <t>12/04/2004</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=292703&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=318305&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS, EN SECTOR QUICAVI , QUEMCHI (N° Pert. 201103254) (e-seia)</t>
+          <t>PROYECTO BACALAO (PERT Nº 201103257) (e-seia)</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -6343,15 +6343,15 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>WALTER GESCHE MONTANDON</t>
+          <t>INDUSTRIA MAR DE CHILOE LTDA.</t>
         </is>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>23/01/2004</t>
+          <t>17/03/2004</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=243908&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=292703&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>CENTRO DE CULTIVO DE MITILIDOS, SECTOR QUICAVI, COMUNA DE QUEMCHI (N° Pert. 201103255) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS, EN SECTOR QUICAVI , QUEMCHI (N° Pert. 201103254) (e-seia)</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -6391,7 +6391,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>HECTOR MIGUEL DIAZ CLEMENT</t>
+          <t>WALTER GESCHE MONTANDON</t>
         </is>
       </c>
       <c r="F126" t="n">
@@ -6409,7 +6409,7 @@
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=244362&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=243908&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Comercial Cultivos Marinos Doña Ana Ltda.(N° Sol. 201103176) (e-seia)</t>
+          <t>CENTRO DE CULTIVO DE MITILIDOS, SECTOR QUICAVI, COMUNA DE QUEMCHI (N° Pert. 201103255) (e-seia)</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -6439,15 +6439,15 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Comercial Cultivos Doña Ana Ltda.</t>
+          <t>HECTOR MIGUEL DIAZ CLEMENT</t>
         </is>
       </c>
       <c r="F127" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>16/09/2003</t>
+          <t>23/01/2004</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=153955&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=244362&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Doña Ana 1 (Sol.N° 201103174) y Cultivos Marinos Doña Ana 2 (Sol.N° 201103175) (e-seia)</t>
+          <t>Comercial Cultivos Marinos Doña Ana Ltda.(N° Sol. 201103176) (e-seia)</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -6491,11 +6491,11 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>25/06/2003</t>
+          <t>16/09/2003</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=153955&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
@@ -6520,7 +6520,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Cutivos Nayahue (N° Sol. 201103192) (e-seia)</t>
+          <t>Cultivos Marinos Doña Ana 1 (Sol.N° 201103174) y Cultivos Marinos Doña Ana 2 (Sol.N° 201103175) (e-seia)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -6535,15 +6535,15 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Neftalí Adalio Soto Ulloa</t>
+          <t>Comercial Cultivos Doña Ana Ltda.</t>
         </is>
       </c>
       <c r="F129" t="n">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>12/06/2003</t>
+          <t>25/06/2003</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -6553,7 +6553,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100903&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=102009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -6568,7 +6568,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Cultivos Marinos LLiuco (N° Sol. 201103150) (e-seia)</t>
+          <t>Cutivos Nayahue (N° Sol. 201103192) (e-seia)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -6583,25 +6583,25 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Neftalí Adalio Soto Ulloa</t>
         </is>
       </c>
       <c r="F130" t="n">
-        <v>2500</v>
+        <v>26</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>10/06/2003</t>
+          <t>12/06/2003</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95217&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=100903&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Sur Punta Queniao (N° Sol. 201103004) (e-seia)</t>
+          <t>Cultivos Marinos LLiuco (N° Sol. 201103150) (e-seia)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -6635,7 +6635,7 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>1200</v>
+        <v>2500</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95217&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Metahue (N°Sol. 201103041) (e-seia)</t>
+          <t>Cultivos Marinos Sur Punta Queniao (N° Sol. 201103004) (e-seia)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -6679,25 +6679,25 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Enzo Efrain Caro Alvarado</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F132" t="n">
-        <v>58</v>
+        <v>1200</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>12/05/2003</t>
+          <t>10/06/2003</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79519&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -6712,7 +6712,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Punta Pirquén ( Solicitud N°200103200)</t>
+          <t>Cultivos Marinos Metahue (N°Sol. 201103041) (e-seia)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6727,15 +6727,15 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Enzo Efrain Caro Alvarado</t>
         </is>
       </c>
       <c r="F133" t="n">
-        <v>950</v>
+        <v>58</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>19/07/2002</t>
+          <t>12/05/2003</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5672&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=79519&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmónidos Cheñique X Región ( Solicitud N°200103025)</t>
+          <t>Cultivos Marinos Punta Pirquén ( Solicitud N°200103200)</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -6775,15 +6775,15 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F134" t="n">
-        <v>800</v>
+        <v>950</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>10/06/2002</t>
+          <t>19/07/2002</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -6793,7 +6793,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5509&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5672&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Centro de Crianza y Engorda de Salmones Norte Cheniao ( Solicitud N°200103302)</t>
+          <t>Centro de Cultivo de Salmónidos Cheñique X Región ( Solicitud N°200103025)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -6823,15 +6823,15 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Claudio Sebastián Pérez Golzman</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F135" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>13/05/2002</t>
+          <t>10/06/2002</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -6841,7 +6841,7 @@
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5388&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5509&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -6856,7 +6856,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Centro de Crianza y Engorda de Salmones Concesión de Acuicultura Isla Taucolón (Solicitud N° 96103399)</t>
+          <t>Centro de Crianza y Engorda de Salmones Norte Cheniao ( Solicitud N°200103302)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -6871,7 +6871,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Carlos Augusto Becker Alvear</t>
+          <t>Claudio Sebastián Pérez Golzman</t>
         </is>
       </c>
       <c r="F136" t="n">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>28/02/2002</t>
+          <t>13/05/2002</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -6889,7 +6889,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5194&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5388&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -6904,7 +6904,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Montaña Cultivo de Moluscos en Quemchi Chiloe (Solicitud N°200103296)</t>
+          <t>Centro de Crianza y Engorda de Salmones Concesión de Acuicultura Isla Taucolón (Solicitud N° 96103399)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6919,15 +6919,15 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Luis Patricio Muñoz Montaña</t>
+          <t>Carlos Augusto Becker Alvear</t>
         </is>
       </c>
       <c r="F137" t="n">
-        <v>30</v>
+        <v>500</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>05/11/2001</t>
+          <t>28/02/2002</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4839&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5194&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura (N°200103029 Servicio Nacional de Pesca)</t>
+          <t>Montaña Cultivo de Moluscos en Quemchi Chiloe (Solicitud N°200103296)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6967,15 +6967,15 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sindicato Trab. Indep. Pesc. Art. Buzos Marisc. Cultivadores y Explot. de Algas Isla Butachauque</t>
+          <t>Luis Patricio Muñoz Montaña</t>
         </is>
       </c>
       <c r="F138" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>26/10/2001</t>
+          <t>05/11/2001</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4839&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Centro de Engorda y Cosecha de Salmones Norte Isla Cheniao Bajo Pulmunmun Quemchi Pert N° 98103014</t>
+          <t>Solicitud de Concesión de Acuicultura (N°200103029 Servicio Nacional de Pesca)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -7015,15 +7015,15 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Sindicato Trab. Indep. Pesc. Art. Buzos Marisc. Cultivadores y Explot. de Algas Isla Butachauque</t>
         </is>
       </c>
       <c r="F139" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>05/10/2001</t>
+          <t>26/10/2001</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -7033,7 +7033,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4548&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -7048,7 +7048,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Cultivos Marinos Isla Tac N°200103046</t>
+          <t>Centro de Engorda y Cosecha de Salmones Norte Isla Cheniao Bajo Pulmunmun Quemchi Pert N° 98103014</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -7063,15 +7063,15 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Trusal S.A.</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F140" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>04/10/2001</t>
+          <t>05/10/2001</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -7081,7 +7081,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4584&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4548&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
+          <t>Cultivos Marinos Isla Tac N°200103046</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -7111,15 +7111,15 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Jaime Antonio Varas Vega</t>
+          <t>Trusal S.A.</t>
         </is>
       </c>
       <c r="F141" t="n">
-        <v>1500</v>
+        <v>950</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>03/10/2001</t>
+          <t>04/10/2001</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -7129,7 +7129,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4584&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
+          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SALMONES ANDES S.A.</t>
+          <t>Jaime Antonio Varas Vega</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>SALMONES ANDES S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2000</v>
+        <v>30</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Punta Chohen Quemchi N° 99103076</t>
+          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Cultivos Mare Aperto S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>40</v>
+        <v>2000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7268,12 +7268,12 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4557&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -7288,7 +7288,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Isla Tac ( Solicitud N°200103307)</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Punta Chohen Quemchi N° 99103076</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -7303,25 +7303,25 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Claudio Sebastián Pérez Golzman</t>
+          <t>Cultivos Mare Aperto S.A.</t>
         </is>
       </c>
       <c r="F145" t="n">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>01/10/2001</t>
+          <t>03/10/2001</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4750&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4557&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Mitílidos Canal Chauques (Sol. N°200103176)</t>
+          <t>Centro de Engorda de Salmones Isla Tac ( Solicitud N°200103307)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -7351,15 +7351,15 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Miguel Fernando Solís López</t>
+          <t>Claudio Sebastián Pérez Golzman</t>
         </is>
       </c>
       <c r="F146" t="n">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>24/08/2001</t>
+          <t>01/10/2001</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -7369,7 +7369,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4311&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4750&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Lolito ( Sol. N°99103092)</t>
+          <t>Centro de Cultivo de Mitílidos Canal Chauques (Sol. N°200103176)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Juan Carlos Cendoya Ojeda</t>
+          <t>Miguel Fernando Solís López</t>
         </is>
       </c>
       <c r="F147" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -7412,12 +7412,12 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4365&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4311&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -7432,7 +7432,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Pinquen (Solicitud N°99103094)</t>
+          <t>Lolito ( Sol. N°99103092)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -7447,11 +7447,11 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Angel Hernán Cendoya Barrientos</t>
+          <t>Juan Carlos Cendoya Ojeda</t>
         </is>
       </c>
       <c r="F148" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4365&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Onix ( Sol. N°99103093)</t>
+          <t>Pinquen (Solicitud N°99103094)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Mirna Lucia Ojeda Vidal</t>
+          <t>Angel Hernán Cendoya Barrientos</t>
         </is>
       </c>
       <c r="F149" t="n">
@@ -7513,7 +7513,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4400&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -7528,7 +7528,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones Isla Caucahue Sector Morrolobos ( Sol. N°99103031)</t>
+          <t>Onix ( Sol. N°99103093)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -7543,25 +7543,25 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Marcelo Norambuena Pradenas</t>
+          <t>Mirna Lucia Ojeda Vidal</t>
         </is>
       </c>
       <c r="F150" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>16/08/2001</t>
+          <t>24/08/2001</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4276&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4400&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -7576,7 +7576,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Cultivo de Gracilaria Verrucosa (Sol. N°97103104)</t>
+          <t>Centro de Engorda de Salmones Isla Caucahue Sector Morrolobos ( Sol. N°99103031)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -7591,15 +7591,15 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Herminio Segundo Villarroel Navarro</t>
+          <t>Marcelo Norambuena Pradenas</t>
         </is>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>03/07/2001</t>
+          <t>16/08/2001</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4122&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4276&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Salmonídeos Aucho y Pido Golfo de Ancud X Región (Solicitudes N°98103064 y 98103085)</t>
+          <t>Cultivo de Gracilaria Verrucosa (Sol. N°97103104)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -7639,15 +7639,15 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Arturo Claro Fernández</t>
+          <t>Herminio Segundo Villarroel Navarro</t>
         </is>
       </c>
       <c r="F152" t="n">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>28/06/2001</t>
+          <t>03/07/2001</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4070&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4122&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -7672,7 +7672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Crecimiento de Mitílidos en Estero Tubildad-Quemchi (99103056)</t>
+          <t>Centro de Cultivo de Salmonídeos Aucho y Pido Golfo de Ancud X Región (Solicitudes N°98103064 y 98103085)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -7687,15 +7687,15 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Carlos Victor Sandoval Dunkler</t>
+          <t>Arturo Claro Fernández</t>
         </is>
       </c>
       <c r="F153" t="n">
-        <v>10</v>
+        <v>800</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>16/05/2001</t>
+          <t>28/06/2001</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3926&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4070&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -7720,7 +7720,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado de Aguas Servidas Villa 11 de Febrero Sector Lliuco Comuna de Quemchi</t>
+          <t>Crecimiento de Mitílidos en Estero Tubildad-Quemchi (99103056)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -7735,15 +7735,15 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Aldea Campesina 11 de Febrero de Lliuco</t>
+          <t>Carlos Victor Sandoval Dunkler</t>
         </is>
       </c>
       <c r="F154" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>19/01/2001</t>
+          <t>16/05/2001</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -7753,7 +7753,7 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3550&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3926&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Isla Butachauques Sector N° 1 Chiloé</t>
+          <t>Sistema de Alcantarillado de Aguas Servidas Villa 11 de Febrero Sector Lliuco Comuna de Quemchi</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -7783,15 +7783,15 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Pedro Jaime Barría Pérez</t>
+          <t>Aldea Campesina 11 de Febrero de Lliuco</t>
         </is>
       </c>
       <c r="F155" t="n">
-        <v>2500</v>
+        <v>50</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>13/09/2000</t>
+          <t>19/01/2001</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3241&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3550&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -7816,7 +7816,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmonídeos Isla Butachauques Sector N° 2 Chiloé (Solicitud N° 98103010)</t>
+          <t>Centro de Engorda de Salmonídeos Isla Butachauques Sector N° 1 Chiloé</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -7849,7 +7849,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3241&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -7864,7 +7864,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura (Nº98103062 )</t>
+          <t>Centro de Engorda de Salmonídeos Isla Butachauques Sector N° 2 Chiloé (Solicitud N° 98103010)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -7879,15 +7879,15 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes , Cultivadores y Extrac. de Algas "Los Fantasmas de Colo"</t>
+          <t>Pedro Jaime Barría Pérez</t>
         </is>
       </c>
       <c r="F157" t="n">
-        <v>10</v>
+        <v>2500</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>20/07/2000</t>
+          <t>13/09/2000</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3033&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3242&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -7912,7 +7912,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Centro de Engorda de Salmones CONEV</t>
+          <t>Solicitud de Concesión de Acuicultura (Nº98103062 )</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7927,15 +7927,15 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Pedro Domingo Martínez Barría</t>
+          <t>Sindicato de Trabajadores Independientes , Cultivadores y Extrac. de Algas "Los Fantasmas de Colo"</t>
         </is>
       </c>
       <c r="F158" t="n">
-        <v>380</v>
+        <v>10</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>21/06/2000</t>
+          <t>20/07/2000</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2963&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3033&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -7960,7 +7960,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Centro de Cultivos para Mitílidos Pectínidos Ostreídos Abalón ( Solicitud N°97103123 )</t>
+          <t>Centro de Engorda de Salmones CONEV</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -7975,15 +7975,15 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Antonio Francisco Oyarzo Oyarzo</t>
+          <t>Pedro Domingo Martínez Barría</t>
         </is>
       </c>
       <c r="F159" t="n">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>01/06/2000</t>
+          <t>21/06/2000</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2925&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2963&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -8008,7 +8008,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Centro de Cultivo para Mitílidos Ostreídos Pectínidos y Abalón</t>
+          <t>Solicitud de Concesión de Centro de Cultivos para Mitílidos Pectínidos Ostreídos Abalón ( Solicitud N°97103123 )</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -8023,7 +8023,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Carlos Victor Sandoval Dunkler</t>
+          <t>Antonio Francisco Oyarzo Oyarzo</t>
         </is>
       </c>
       <c r="F160" t="n">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>26/05/2000</t>
+          <t>01/06/2000</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -8041,7 +8041,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2900&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2925&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Bibalvos Puerto Huite</t>
+          <t>Solicitud de Concesión de Centro de Cultivo para Mitílidos Ostreídos Pectínidos y Abalón</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -8071,25 +8071,25 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>JOSE MILTON VERA VERA</t>
+          <t>Carlos Victor Sandoval Dunkler</t>
         </is>
       </c>
       <c r="F161" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>17/05/2000</t>
+          <t>26/05/2000</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2851&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2900&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Acuicultura sector Aucar Canal Caucahue Comuna de Quemchi</t>
+          <t>Cultivo de Moluscos Bibalvos Puerto Huite</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -8119,25 +8119,25 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Dagoberto Eberardo Bórquez Werner</t>
+          <t>JOSE MILTON VERA VERA</t>
         </is>
       </c>
       <c r="F162" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>25/01/2000</t>
+          <t>17/05/2000</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2634&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2851&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Centro de Cultivo para Mitílidos Estero Tubildad</t>
+          <t>Solicitud de Concesión de Acuicultura sector Aucar Canal Caucahue Comuna de Quemchi</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -8167,25 +8167,25 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Antonio Francisco Oyarzo Oyarzo</t>
+          <t>Dagoberto Eberardo Bórquez Werner</t>
         </is>
       </c>
       <c r="F163" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>21/01/2000</t>
+          <t>25/01/2000</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2635&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2634&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Solicitud de Concesión de Cultivo para Mitílidos</t>
+          <t>Solicitud de Concesión de Centro de Cultivo para Mitílidos Estero Tubildad</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -8215,7 +8215,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Carlos Victor Sandoval Dunkler</t>
+          <t>Antonio Francisco Oyarzo Oyarzo</t>
         </is>
       </c>
       <c r="F164" t="n">
@@ -8233,7 +8233,7 @@
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2642&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2635&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -8248,7 +8248,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Construcción y Funcionamiento de una Escuela Particular Subvencionada Francisco Coloane</t>
+          <t>Solicitud de Concesión de Cultivo para Mitílidos</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -8263,25 +8263,25 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Sociedad de Servicios Educacionales Archipielago Limitada</t>
+          <t>Carlos Victor Sandoval Dunkler</t>
         </is>
       </c>
       <c r="F165" t="n">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>09/09/1998</t>
+          <t>21/01/2000</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1457&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2642&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -8296,43 +8296,91 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
+          <t>Construcción y Funcionamiento de una Escuela Particular Subvencionada Francisco Coloane</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Sociedad de Servicios Educacionales Archipielago Limitada</t>
+        </is>
+      </c>
+      <c r="F166" t="n">
+        <v>220</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>09/09/1998</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1457&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>Quemchi</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
           <t>Construción y Funcionamiento de una Escuela Particular Ubicada en el Sector Rural de Quemchi</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
         <is>
           <t>Arturo Hernán Munoz Sholbach</t>
         </is>
       </c>
-      <c r="F166" t="n">
+      <c r="F167" t="n">
         <v>200</v>
       </c>
-      <c r="G166" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>16/07/1998</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Aprobado</t>
-        </is>
-      </c>
-      <c r="I166" t="inlineStr">
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I167" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1252&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J166" t="inlineStr">
+      <c r="J167" t="inlineStr">
         <is>
           <t>Quemchi</t>
         </is>

--- a/data/Quemchi.xlsx
+++ b/data/Quemchi.xlsx
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
+          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Claudio Sebastián Pérez Golzman</t>
+          <t>MEJILLONES AUCAR LIMITADA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1500</v>
+        <v>3650</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MEJILLONES AUCAR LIMITADA</t>
+          <t>Claudio Sebastián Pérez Golzman</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>3650</v>
+        <v>1500</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Jaime Antonio Varas Vega</t>
+          <t>SALMONES ANDES S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1500</v>
+        <v>30</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
+          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SALMONES ANDES S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
+          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Jaime Antonio Varas Vega</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">

--- a/data/Quemchi.xlsx
+++ b/data/Quemchi.xlsx
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MEJILLONES AUCAR LIMITADA</t>
+          <t>Claudio Sebastián Pérez Golzman</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>3650</v>
+        <v>1500</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
+          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Claudio Sebastián Pérez Golzman</t>
+          <t>MEJILLONES AUCAR LIMITADA</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1500</v>
+        <v>3650</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
+          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SALMONES ANDES S.A.</t>
+          <t>Jaime Antonio Varas Vega</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>30</v>
+        <v>1500</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>SALMONES ANDES S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>2000</v>
+        <v>30</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
+          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Jaime Antonio Varas Vega</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">

--- a/data/Quemchi.xlsx
+++ b/data/Quemchi.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>19/08/2023</t>
+          <t>24/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
+          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,11 +5191,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Claudio Sebastián Pérez Golzman</t>
+          <t>MEJILLONES AUCAR LIMITADA</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1500</v>
+        <v>3650</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -5204,12 +5204,12 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Mitílidos y Salmón Ahumado, Salmones Aucar Ltda., Quemchi; X Región (e-seia)</t>
+          <t>Ampliación Centro de Engorda de Salmónidos Isla TAC, X Región Nº Pert 200103307 (e-seia)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,11 +5239,11 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MEJILLONES AUCAR LIMITADA</t>
+          <t>Claudio Sebastián Pérez Golzman</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>3650</v>
+        <v>1500</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -5252,12 +5252,12 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1257492&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -7144,7 +7144,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
+          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -7159,11 +7159,11 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Jaime Antonio Varas Vega</t>
+          <t>SALMONES ANDES S.A.</t>
         </is>
       </c>
       <c r="F142" t="n">
-        <v>1500</v>
+        <v>30</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Centro de Crecimiento y Engorda de Moluscos Filtradores Canal Caucahue Pta. Queler N° 99103081</t>
+          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -7207,11 +7207,11 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SALMONES ANDES S.A.</t>
+          <t>Cermaq Chile S.A.</t>
         </is>
       </c>
       <c r="F143" t="n">
-        <v>30</v>
+        <v>2000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4552&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -7240,7 +7240,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Ampliación Centro de Crecimiento y Engorda de Salmones Canal Caucahue Sector Punta Arenas N°99103066</t>
+          <t>Centros de Engorda de Salmónidos Noreste Isla Butachauques Chiloé PERT 98103015 98103016 98103012 98103013</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -7255,11 +7255,11 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Cermaq Chile S.A.</t>
+          <t>Jaime Antonio Varas Vega</t>
         </is>
       </c>
       <c r="F144" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -7273,7 +7273,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4555&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4523&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
